--- a/data/pca/factorExposure/factorExposure_2009-11-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004927316762136679</v>
+        <v>0.01662596468489956</v>
       </c>
       <c r="C2">
-        <v>0.00838034019469636</v>
+        <v>-0.001022830524934213</v>
       </c>
       <c r="D2">
-        <v>0.002401148338029269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00759072209489076</v>
+      </c>
+      <c r="E2">
+        <v>0.0005144400446130597</v>
+      </c>
+      <c r="F2">
+        <v>0.01164965197200343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.04569419629441394</v>
+        <v>0.09386673124289306</v>
       </c>
       <c r="C4">
-        <v>0.103748501139868</v>
+        <v>-0.01507748651258444</v>
       </c>
       <c r="D4">
-        <v>0.03818903483735908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08403191385283999</v>
+      </c>
+      <c r="E4">
+        <v>0.02820940411735358</v>
+      </c>
+      <c r="F4">
+        <v>-0.03154159857533642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0605546980697555</v>
+        <v>0.1575581229364444</v>
       </c>
       <c r="C6">
-        <v>0.1166913089655964</v>
+        <v>-0.02567284708292836</v>
       </c>
       <c r="D6">
-        <v>-0.04240692768218244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02140178744371064</v>
+      </c>
+      <c r="E6">
+        <v>0.01200197287269793</v>
+      </c>
+      <c r="F6">
+        <v>-0.04594742301353015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02193146279447996</v>
+        <v>0.06273993745330732</v>
       </c>
       <c r="C7">
-        <v>0.07932449905911022</v>
+        <v>0.001524494812127942</v>
       </c>
       <c r="D7">
-        <v>0.01629326887017805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05277085777586533</v>
+      </c>
+      <c r="E7">
+        <v>0.009692339433069085</v>
+      </c>
+      <c r="F7">
+        <v>-0.0472139237892371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.008336315525301048</v>
+        <v>0.05699324857282752</v>
       </c>
       <c r="C8">
-        <v>0.06935415387388409</v>
+        <v>0.01350689744570733</v>
       </c>
       <c r="D8">
-        <v>-0.01243928976951011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03328175639233687</v>
+      </c>
+      <c r="E8">
+        <v>0.01712767585891831</v>
+      </c>
+      <c r="F8">
+        <v>0.02836128375565485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0402304111814753</v>
+        <v>0.0711825545151929</v>
       </c>
       <c r="C9">
-        <v>0.09319685433903949</v>
+        <v>-0.01075493001306229</v>
       </c>
       <c r="D9">
-        <v>0.03608733028501918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08589284571733385</v>
+      </c>
+      <c r="E9">
+        <v>0.0225383753017289</v>
+      </c>
+      <c r="F9">
+        <v>-0.04716962374394835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01907584204371985</v>
+        <v>0.09484908100626331</v>
       </c>
       <c r="C10">
-        <v>0.03136710592189936</v>
+        <v>-0.02091212169198019</v>
       </c>
       <c r="D10">
-        <v>-0.1218334362207564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1700259274011089</v>
+      </c>
+      <c r="E10">
+        <v>-0.03546053305195467</v>
+      </c>
+      <c r="F10">
+        <v>0.05384738554986911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04300804036925861</v>
+        <v>0.0873590563695717</v>
       </c>
       <c r="C11">
-        <v>0.09536131318355709</v>
+        <v>-0.01053917736062429</v>
       </c>
       <c r="D11">
-        <v>0.06056177536956196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1167218340198321</v>
+      </c>
+      <c r="E11">
+        <v>0.04609899333506585</v>
+      </c>
+      <c r="F11">
+        <v>-0.02144979037583126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.04323835937523131</v>
+        <v>0.09208732872077781</v>
       </c>
       <c r="C12">
-        <v>0.1044336412078188</v>
+        <v>-0.007904658439140722</v>
       </c>
       <c r="D12">
-        <v>0.06175317786687419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317705582586588</v>
+      </c>
+      <c r="E12">
+        <v>0.04790580330814365</v>
+      </c>
+      <c r="F12">
+        <v>-0.02672183411615357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01643147299983739</v>
+        <v>0.04186396123623971</v>
       </c>
       <c r="C13">
-        <v>0.04228465472375347</v>
+        <v>-0.002869347438577995</v>
       </c>
       <c r="D13">
-        <v>0.03197330098566124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05232920587814021</v>
+      </c>
+      <c r="E13">
+        <v>-0.008313676147203349</v>
+      </c>
+      <c r="F13">
+        <v>-0.003303816105403463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02067011042351326</v>
+        <v>0.02264161262970057</v>
       </c>
       <c r="C14">
-        <v>0.01811086804574014</v>
+        <v>-0.01370624880563264</v>
       </c>
       <c r="D14">
-        <v>0.006418799305368317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03322426361249885</v>
+      </c>
+      <c r="E14">
+        <v>0.01759391207011461</v>
+      </c>
+      <c r="F14">
+        <v>-0.01355604655218248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01713711985175371</v>
+        <v>0.03315543954307414</v>
       </c>
       <c r="C15">
-        <v>0.03160251136034866</v>
+        <v>-0.004820829708270909</v>
       </c>
       <c r="D15">
-        <v>0.01123329117895959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04480790631085015</v>
+      </c>
+      <c r="E15">
+        <v>0.005793910144599282</v>
+      </c>
+      <c r="F15">
+        <v>-0.02302885012614223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03304810946684273</v>
+        <v>0.07422661670928268</v>
       </c>
       <c r="C16">
-        <v>0.09545624101459817</v>
+        <v>-0.001579473838616601</v>
       </c>
       <c r="D16">
-        <v>0.05008232083469146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1255970642047922</v>
+      </c>
+      <c r="E16">
+        <v>0.06149598562327227</v>
+      </c>
+      <c r="F16">
+        <v>-0.02411197297056388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03287335945459412</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003583411673383074</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0183394648411817</v>
+      </c>
+      <c r="E18">
+        <v>-0.008006474939041129</v>
+      </c>
+      <c r="F18">
+        <v>0.006112559678429618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02232501430054417</v>
+        <v>0.06084772550724771</v>
       </c>
       <c r="C20">
-        <v>0.05879749170165895</v>
+        <v>-0.0002731929378440477</v>
       </c>
       <c r="D20">
-        <v>0.01314604179154405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07737942116965021</v>
+      </c>
+      <c r="E20">
+        <v>0.05562460959954105</v>
+      </c>
+      <c r="F20">
+        <v>-0.02221807265554223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02056627794513329</v>
+        <v>0.0407934178389984</v>
       </c>
       <c r="C21">
-        <v>0.03684356045204439</v>
+        <v>-0.006561538506481242</v>
       </c>
       <c r="D21">
-        <v>0.002856299182302435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03690339027795302</v>
+      </c>
+      <c r="E21">
+        <v>-0.005685345358305007</v>
+      </c>
+      <c r="F21">
+        <v>0.02398913336248391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.009625970554145134</v>
+        <v>0.04352482254702354</v>
       </c>
       <c r="C22">
-        <v>0.03020107618924469</v>
+        <v>-0.0007230267652094586</v>
       </c>
       <c r="D22">
-        <v>-0.03163805401294002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004602246779597232</v>
+      </c>
+      <c r="E22">
+        <v>0.03051314531158978</v>
+      </c>
+      <c r="F22">
+        <v>0.03686264248113833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.009609056497066686</v>
+        <v>0.04351040961270831</v>
       </c>
       <c r="C23">
-        <v>0.0301549186072597</v>
+        <v>-0.0007186548595253031</v>
       </c>
       <c r="D23">
-        <v>-0.03169701317812088</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004606908103701412</v>
+      </c>
+      <c r="E23">
+        <v>0.03071450124016608</v>
+      </c>
+      <c r="F23">
+        <v>0.03682654177172857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03443195436927703</v>
+        <v>0.07990224938628365</v>
       </c>
       <c r="C24">
-        <v>0.1025306070993556</v>
+        <v>-0.002068875021795516</v>
       </c>
       <c r="D24">
-        <v>0.05620482367124894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1209158579271865</v>
+      </c>
+      <c r="E24">
+        <v>0.04882023858385708</v>
+      </c>
+      <c r="F24">
+        <v>-0.02593739721214674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.03754752294292457</v>
+        <v>0.08468278835832374</v>
       </c>
       <c r="C25">
-        <v>0.09795274981441048</v>
+        <v>-0.004398951317012274</v>
       </c>
       <c r="D25">
-        <v>0.06754342667679103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092206452577107</v>
+      </c>
+      <c r="E25">
+        <v>0.03231854933404017</v>
+      </c>
+      <c r="F25">
+        <v>-0.02614433592956358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03077588906162237</v>
+        <v>0.05799681912885655</v>
       </c>
       <c r="C26">
-        <v>0.04475858477163464</v>
+        <v>-0.01433100897154551</v>
       </c>
       <c r="D26">
-        <v>0.005006298815829669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04015689009371782</v>
+      </c>
+      <c r="E26">
+        <v>0.02841323818799637</v>
+      </c>
+      <c r="F26">
+        <v>0.01000767303527158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0261148436271802</v>
+        <v>0.1402186783968638</v>
       </c>
       <c r="C28">
-        <v>0.07612939821988014</v>
+        <v>-0.02050989904688199</v>
       </c>
       <c r="D28">
-        <v>-0.2185032089286604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2617515777430698</v>
+      </c>
+      <c r="E28">
+        <v>-0.06739889832332818</v>
+      </c>
+      <c r="F28">
+        <v>-0.01033391433976039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01662281252258406</v>
+        <v>0.02743981031042475</v>
       </c>
       <c r="C29">
-        <v>0.01976154688283734</v>
+        <v>-0.008436274228944357</v>
       </c>
       <c r="D29">
-        <v>0.005357487547927169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03179733602371559</v>
+      </c>
+      <c r="E29">
+        <v>0.01127214391554321</v>
+      </c>
+      <c r="F29">
+        <v>0.01227057526288805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.03517070281565008</v>
+        <v>0.0608434786259106</v>
       </c>
       <c r="C30">
-        <v>0.1157449003347194</v>
+        <v>-0.003301035332428706</v>
       </c>
       <c r="D30">
-        <v>0.04339081750396107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08911411777460355</v>
+      </c>
+      <c r="E30">
+        <v>0.01960281195089643</v>
+      </c>
+      <c r="F30">
+        <v>-0.08182151579135447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02531349291387976</v>
+        <v>0.05007625074594051</v>
       </c>
       <c r="C31">
-        <v>0.02789620262579618</v>
+        <v>-0.01512863574393516</v>
       </c>
       <c r="D31">
-        <v>0.009928946698679171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02482238011161364</v>
+      </c>
+      <c r="E31">
+        <v>0.02750912468651777</v>
+      </c>
+      <c r="F31">
+        <v>0.002292253359955944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0160061977830129</v>
+        <v>0.04985187597914274</v>
       </c>
       <c r="C32">
-        <v>0.0533083951087328</v>
+        <v>0.001579453109865518</v>
       </c>
       <c r="D32">
-        <v>-0.005570377260274263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03687130840216327</v>
+      </c>
+      <c r="E32">
+        <v>0.03184717143850118</v>
+      </c>
+      <c r="F32">
+        <v>-0.002324126561385939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.04021651682519015</v>
+        <v>0.08981307160290415</v>
       </c>
       <c r="C33">
-        <v>0.1035617309779081</v>
+        <v>-0.007450535063251217</v>
       </c>
       <c r="D33">
-        <v>0.03784690289066696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09955376159431098</v>
+      </c>
+      <c r="E33">
+        <v>0.04400203888241092</v>
+      </c>
+      <c r="F33">
+        <v>-0.03527071352411053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03867946862877123</v>
+        <v>0.06738537471793803</v>
       </c>
       <c r="C34">
-        <v>0.08540862033759569</v>
+        <v>-0.01038298685167433</v>
       </c>
       <c r="D34">
-        <v>0.05620111543245789</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1078352357436089</v>
+      </c>
+      <c r="E34">
+        <v>0.03426774431167543</v>
+      </c>
+      <c r="F34">
+        <v>-0.03310234020139176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.008143074579723729</v>
+        <v>0.02437700047524995</v>
       </c>
       <c r="C35">
-        <v>0.01967144918987917</v>
+        <v>-0.002387285524982031</v>
       </c>
       <c r="D35">
-        <v>0.00113811517997416</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01138288253479836</v>
+      </c>
+      <c r="E35">
+        <v>0.0114750659219979</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003165441019341651</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01716268803314142</v>
+        <v>0.02784785692309791</v>
       </c>
       <c r="C36">
-        <v>0.02939380194510534</v>
+        <v>-0.007009381055765083</v>
       </c>
       <c r="D36">
-        <v>0.008405422964562648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03949284791769362</v>
+      </c>
+      <c r="E36">
+        <v>0.01647213829520254</v>
+      </c>
+      <c r="F36">
+        <v>-0.01444100520027438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003371522334230856</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001293419647752707</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003478242751251883</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004352337917141489</v>
+      </c>
+      <c r="F37">
+        <v>-0.0007884424092848456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0009315152773781703</v>
+        <v>0.001408295885247711</v>
       </c>
       <c r="C38">
-        <v>0.003023309377107679</v>
+        <v>-0.0002393668733415047</v>
       </c>
       <c r="D38">
-        <v>-0.002218556893401475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.000311360855989118</v>
+      </c>
+      <c r="E38">
+        <v>0.000295874025866476</v>
+      </c>
+      <c r="F38">
+        <v>0.0009144419403149733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.05984382933408097</v>
+        <v>0.105343314974232</v>
       </c>
       <c r="C39">
-        <v>0.1397683001317438</v>
+        <v>-0.01577557877549956</v>
       </c>
       <c r="D39">
-        <v>0.1050482449568266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1537712631436367</v>
+      </c>
+      <c r="E39">
+        <v>0.05893138793749405</v>
+      </c>
+      <c r="F39">
+        <v>-0.02895810924923339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01544451719607602</v>
+        <v>0.04220104113564046</v>
       </c>
       <c r="C40">
-        <v>0.01983023701610789</v>
+        <v>-0.006864213024945007</v>
       </c>
       <c r="D40">
-        <v>-0.008159170431656771</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03156282446547452</v>
+      </c>
+      <c r="E40">
+        <v>0.00324779448577369</v>
+      </c>
+      <c r="F40">
+        <v>0.01655488357024137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01325478680622415</v>
+        <v>0.02807344280138788</v>
       </c>
       <c r="C41">
-        <v>0.01370060118744287</v>
+        <v>-0.006842065125208848</v>
       </c>
       <c r="D41">
-        <v>-0.006043021799958819</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01012074847609656</v>
+      </c>
+      <c r="E41">
+        <v>0.0124184401163974</v>
+      </c>
+      <c r="F41">
+        <v>0.006256751769516783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01609097830355413</v>
+        <v>0.04074677429631322</v>
       </c>
       <c r="C43">
-        <v>0.02172155333933096</v>
+        <v>-0.006807239972368281</v>
       </c>
       <c r="D43">
-        <v>0.001142601099688517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0194356168638864</v>
+      </c>
+      <c r="E43">
+        <v>0.02448044536224738</v>
+      </c>
+      <c r="F43">
+        <v>0.01330977606108296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05314559067788469</v>
+        <v>0.07956673218670317</v>
       </c>
       <c r="C44">
-        <v>0.1113780902102271</v>
+        <v>-0.01985053958061907</v>
       </c>
       <c r="D44">
-        <v>0.02596301227217174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09738278197074095</v>
+      </c>
+      <c r="E44">
+        <v>0.06463858170332619</v>
+      </c>
+      <c r="F44">
+        <v>-0.1550550709638492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006120597402532249</v>
+        <v>0.02316365011919054</v>
       </c>
       <c r="C46">
-        <v>0.006358285001502064</v>
+        <v>-0.003446549113202871</v>
       </c>
       <c r="D46">
-        <v>-0.009249685737675354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01298146259843381</v>
+      </c>
+      <c r="E46">
+        <v>0.02199322053722906</v>
+      </c>
+      <c r="F46">
+        <v>0.006755993648806569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01490919055687532</v>
+        <v>0.05146552274043831</v>
       </c>
       <c r="C47">
-        <v>0.02879015222481277</v>
+        <v>-0.003363923448680514</v>
       </c>
       <c r="D47">
-        <v>-0.02202973949736441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01411296826438689</v>
+      </c>
+      <c r="E47">
+        <v>0.02350002924887149</v>
+      </c>
+      <c r="F47">
+        <v>0.03295583539146163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01857079161980822</v>
+        <v>0.04994965401869911</v>
       </c>
       <c r="C48">
-        <v>0.04702695219488671</v>
+        <v>-0.002325385445218071</v>
       </c>
       <c r="D48">
-        <v>0.03113127053898548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04993339098995792</v>
+      </c>
+      <c r="E48">
+        <v>-0.006213536821573732</v>
+      </c>
+      <c r="F48">
+        <v>-0.009396654323168333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.0740555165913441</v>
+        <v>0.2003357613775883</v>
       </c>
       <c r="C49">
-        <v>0.2138220046416368</v>
+        <v>-0.01905790651158971</v>
       </c>
       <c r="D49">
-        <v>-0.0512342099253431</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008053108914335166</v>
+      </c>
+      <c r="E49">
+        <v>0.03078519240692518</v>
+      </c>
+      <c r="F49">
+        <v>-0.03896984361122283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02330861098948762</v>
+        <v>0.0504900210096455</v>
       </c>
       <c r="C50">
-        <v>0.03330733967697721</v>
+        <v>-0.01108920512408239</v>
       </c>
       <c r="D50">
-        <v>0.006851180685895343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02392839351979288</v>
+      </c>
+      <c r="E50">
+        <v>0.0297819737271787</v>
+      </c>
+      <c r="F50">
+        <v>-0.009225403108478468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000313793640642877</v>
+        <v>0.0003961896806322456</v>
       </c>
       <c r="C51">
-        <v>0.0008262884042303765</v>
+        <v>-0.0001187249844237549</v>
       </c>
       <c r="D51">
-        <v>-0.0007691036565105903</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001529929319364726</v>
+      </c>
+      <c r="E51">
+        <v>1.235626870173639e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001368958011367306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05559681390036596</v>
+        <v>0.1465354894930402</v>
       </c>
       <c r="C52">
-        <v>0.1521417610151998</v>
+        <v>-0.01590803861342115</v>
       </c>
       <c r="D52">
-        <v>0.0266764624625331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04437928881761213</v>
+      </c>
+      <c r="E52">
+        <v>0.0206359756997205</v>
+      </c>
+      <c r="F52">
+        <v>-0.04210388503610787</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.06020036572169327</v>
+        <v>0.1719418688243574</v>
       </c>
       <c r="C53">
-        <v>0.1678101677660687</v>
+        <v>-0.01898216111318897</v>
       </c>
       <c r="D53">
-        <v>-0.008490479729898161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006692427447639892</v>
+      </c>
+      <c r="E53">
+        <v>0.03231272872349235</v>
+      </c>
+      <c r="F53">
+        <v>-0.0729653778736062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02027682344045378</v>
+        <v>0.0221505525094761</v>
       </c>
       <c r="C54">
-        <v>0.03097960156995668</v>
+        <v>-0.01213176519882417</v>
       </c>
       <c r="D54">
-        <v>0.005950648727424021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03419314119803831</v>
+      </c>
+      <c r="E54">
+        <v>0.01830538112686471</v>
+      </c>
+      <c r="F54">
+        <v>0.004716489428785331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.04139116847660398</v>
+        <v>0.1141574176745099</v>
       </c>
       <c r="C55">
-        <v>0.09566217705445827</v>
+        <v>-0.01652386736548708</v>
       </c>
       <c r="D55">
-        <v>0.001697475753739754</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009440193102779307</v>
+      </c>
+      <c r="E55">
+        <v>0.02837807199046251</v>
+      </c>
+      <c r="F55">
+        <v>-0.04759097496506298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.05530091627835321</v>
+        <v>0.1770183286027729</v>
       </c>
       <c r="C56">
-        <v>0.1545632804024056</v>
+        <v>-0.01652479058549633</v>
       </c>
       <c r="D56">
-        <v>-0.01537529251927295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0006666939855980611</v>
+      </c>
+      <c r="E56">
+        <v>0.03588926167600547</v>
+      </c>
+      <c r="F56">
+        <v>-0.05205702499984198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01904843587040242</v>
+        <v>0.04605241336949363</v>
       </c>
       <c r="C58">
-        <v>0.04306579685091425</v>
+        <v>-0.0002123959865112611</v>
       </c>
       <c r="D58">
-        <v>0.02608216912514006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06776116432098812</v>
+      </c>
+      <c r="E58">
+        <v>0.0267750860184387</v>
+      </c>
+      <c r="F58">
+        <v>0.03646827163428269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.03826807531006123</v>
+        <v>0.1681476390963939</v>
       </c>
       <c r="C59">
-        <v>0.1192562047344857</v>
+        <v>-0.0210716999897053</v>
       </c>
       <c r="D59">
-        <v>-0.2109609892933564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2188316355939832</v>
+      </c>
+      <c r="E59">
+        <v>-0.04651737750686855</v>
+      </c>
+      <c r="F59">
+        <v>0.0348491913989509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.06557529328309478</v>
+        <v>0.2318630582520099</v>
       </c>
       <c r="C60">
-        <v>0.2519999880652453</v>
+        <v>0.002644802644971992</v>
       </c>
       <c r="D60">
-        <v>0.004611585179322977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04213335228512659</v>
+      </c>
+      <c r="E60">
+        <v>0.01122544337174301</v>
+      </c>
+      <c r="F60">
+        <v>0.006748360160845093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0477930153434334</v>
+        <v>0.0815489893807565</v>
       </c>
       <c r="C61">
-        <v>0.1250275455609765</v>
+        <v>-0.01161476303728463</v>
       </c>
       <c r="D61">
-        <v>0.049557329941391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1169141168956805</v>
+      </c>
+      <c r="E61">
+        <v>0.03880927881583588</v>
+      </c>
+      <c r="F61">
+        <v>-0.01076311873238808</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.05961136501574165</v>
+        <v>0.1700860497557879</v>
       </c>
       <c r="C62">
-        <v>0.1556223930486523</v>
+        <v>-0.01988597047827763</v>
       </c>
       <c r="D62">
-        <v>-0.01499273008225911</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006443004054043504</v>
+      </c>
+      <c r="E62">
+        <v>0.03503104406118255</v>
+      </c>
+      <c r="F62">
+        <v>-0.03308036623818188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01836074104009714</v>
+        <v>0.04609148156885583</v>
       </c>
       <c r="C63">
-        <v>0.04720673766608922</v>
+        <v>-0.001771597287212145</v>
       </c>
       <c r="D63">
-        <v>0.02921299138418936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05826515367336482</v>
+      </c>
+      <c r="E63">
+        <v>0.0214218777198295</v>
+      </c>
+      <c r="F63">
+        <v>-0.005164618044947358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.03860811420557522</v>
+        <v>0.1103022321225497</v>
       </c>
       <c r="C64">
-        <v>0.08591197049477058</v>
+        <v>-0.01105174249946987</v>
       </c>
       <c r="D64">
-        <v>0.006955726167180075</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04355365562218324</v>
+      </c>
+      <c r="E64">
+        <v>0.02484565853129432</v>
+      </c>
+      <c r="F64">
+        <v>-0.02550761391002607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.06298277428383423</v>
+        <v>0.1475640054077023</v>
       </c>
       <c r="C65">
-        <v>0.1134779294998182</v>
+        <v>-0.03274699931185793</v>
       </c>
       <c r="D65">
-        <v>-0.03515527165922001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04043208152879216</v>
+      </c>
+      <c r="E65">
+        <v>0.005463700479856911</v>
+      </c>
+      <c r="F65">
+        <v>-0.04033795640601662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06466513010806668</v>
+        <v>0.1247119058150287</v>
       </c>
       <c r="C66">
-        <v>0.1735373510314612</v>
+        <v>-0.01388734760512012</v>
       </c>
       <c r="D66">
-        <v>0.08857573597230659</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423804623946469</v>
+      </c>
+      <c r="E66">
+        <v>0.06629557619622517</v>
+      </c>
+      <c r="F66">
+        <v>-0.0313225799056277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.02323509830362372</v>
+        <v>0.06063140168495133</v>
       </c>
       <c r="C67">
-        <v>0.06681336846793046</v>
+        <v>-0.003317519405008832</v>
       </c>
       <c r="D67">
-        <v>0.01443467582132218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05542615759372989</v>
+      </c>
+      <c r="E67">
+        <v>0.0175151115910916</v>
+      </c>
+      <c r="F67">
+        <v>0.03418943455008826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.0299391315934085</v>
+        <v>0.1160992787825993</v>
       </c>
       <c r="C68">
-        <v>0.04883663831537208</v>
+        <v>-0.03143417156769977</v>
       </c>
       <c r="D68">
-        <v>-0.1880299049338865</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2604257576235988</v>
+      </c>
+      <c r="E68">
+        <v>-0.08618683706094418</v>
+      </c>
+      <c r="F68">
+        <v>-0.006576248279624794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01139530348155198</v>
+        <v>0.03998825198807249</v>
       </c>
       <c r="C69">
-        <v>0.03450988730960459</v>
+        <v>-0.001366030214598405</v>
       </c>
       <c r="D69">
-        <v>-0.01878824235544727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007104055231798538</v>
+      </c>
+      <c r="E69">
+        <v>0.02263862424786663</v>
+      </c>
+      <c r="F69">
+        <v>0.0002865662021082143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01349048833083484</v>
+        <v>0.06578750271032556</v>
       </c>
       <c r="C70">
-        <v>0.01809747959024893</v>
+        <v>0.02781611328166124</v>
       </c>
       <c r="D70">
-        <v>-0.04057400356218135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02461038247359761</v>
+      </c>
+      <c r="E70">
+        <v>-0.03939093872795052</v>
+      </c>
+      <c r="F70">
+        <v>0.1841553578945737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.03720165069906302</v>
+        <v>0.136137918146987</v>
       </c>
       <c r="C71">
-        <v>0.06435914149042439</v>
+        <v>-0.0356680546533106</v>
       </c>
       <c r="D71">
-        <v>-0.2070212248580456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2729650637902933</v>
+      </c>
+      <c r="E71">
+        <v>-0.09598635048071892</v>
+      </c>
+      <c r="F71">
+        <v>-0.01270986809591156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.05682453182545962</v>
+        <v>0.1417556890573118</v>
       </c>
       <c r="C72">
-        <v>0.1169585380246267</v>
+        <v>-0.02596989469399464</v>
       </c>
       <c r="D72">
-        <v>-0.02893626362791299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0004580475271847596</v>
+      </c>
+      <c r="E72">
+        <v>0.03877916622791439</v>
+      </c>
+      <c r="F72">
+        <v>-0.03401013550556044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.06577693636723327</v>
+        <v>0.2014284073868234</v>
       </c>
       <c r="C73">
-        <v>0.1971689857045233</v>
+        <v>-0.01219529208641719</v>
       </c>
       <c r="D73">
-        <v>-0.05080666337652718</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01695141086814939</v>
+      </c>
+      <c r="E73">
+        <v>0.06334112752723882</v>
+      </c>
+      <c r="F73">
+        <v>-0.03664288326064175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.03893960102737248</v>
+        <v>0.0946901014174895</v>
       </c>
       <c r="C74">
-        <v>0.104904907546578</v>
+        <v>-0.01319829481037776</v>
       </c>
       <c r="D74">
-        <v>-0.01548828984139659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01727405076625193</v>
+      </c>
+      <c r="E74">
+        <v>0.04427340533109415</v>
+      </c>
+      <c r="F74">
+        <v>-0.0567400054995738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.06268186227297895</v>
+        <v>0.1278444675398532</v>
       </c>
       <c r="C75">
-        <v>0.1300151207348443</v>
+        <v>-0.02792498517821619</v>
       </c>
       <c r="D75">
-        <v>-0.02176078130669335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03015288798515658</v>
+      </c>
+      <c r="E75">
+        <v>0.05818769847398782</v>
+      </c>
+      <c r="F75">
+        <v>-0.01926304324742693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>7.233355247597709e-05</v>
+        <v>8.392389576136163e-05</v>
       </c>
       <c r="C76">
-        <v>0.0002001709324352651</v>
+        <v>-5.584121418054893e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0006535353617085588</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0004363888222203183</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002175774627641225</v>
+      </c>
+      <c r="F76">
+        <v>-0.0004842975769186305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.03703469976760924</v>
+        <v>0.08708505457887902</v>
       </c>
       <c r="C77">
-        <v>0.08859569020529687</v>
+        <v>-0.007854183272254704</v>
       </c>
       <c r="D77">
-        <v>0.07082196963091715</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1136188169362616</v>
+      </c>
+      <c r="E77">
+        <v>0.03909950834440286</v>
+      </c>
+      <c r="F77">
+        <v>-0.03358167683965708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0787747287252156</v>
+        <v>0.100718621979087</v>
       </c>
       <c r="C78">
-        <v>0.1251373580048351</v>
+        <v>-0.03970918555358072</v>
       </c>
       <c r="D78">
-        <v>-0.006906119241780779</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1153642124314536</v>
+      </c>
+      <c r="E78">
+        <v>0.07373323493307024</v>
+      </c>
+      <c r="F78">
+        <v>-0.04473002363979192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.06036933207111827</v>
+        <v>0.1645442990103096</v>
       </c>
       <c r="C79">
-        <v>0.1412073131241336</v>
+        <v>-0.02238093916473862</v>
       </c>
       <c r="D79">
-        <v>-0.02908607649814664</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01474275661409279</v>
+      </c>
+      <c r="E79">
+        <v>0.04633863316260264</v>
+      </c>
+      <c r="F79">
+        <v>-0.01076454545535898</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.02516801655491812</v>
+        <v>0.08293958095522606</v>
       </c>
       <c r="C80">
-        <v>0.09044170927485068</v>
+        <v>0.000814799240370569</v>
       </c>
       <c r="D80">
-        <v>0.01190538912041155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0559415710756704</v>
+      </c>
+      <c r="E80">
+        <v>0.03631623739352483</v>
+      </c>
+      <c r="F80">
+        <v>0.0234627695792005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.06252158632741107</v>
+        <v>0.1211977886171654</v>
       </c>
       <c r="C81">
-        <v>0.123519331882044</v>
+        <v>-0.03177309435583721</v>
       </c>
       <c r="D81">
-        <v>-0.006214942128359499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01521320463335621</v>
+      </c>
+      <c r="E81">
+        <v>0.05718260412275747</v>
+      </c>
+      <c r="F81">
+        <v>-0.01681991277918515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.06261926402241413</v>
+        <v>0.1658003009735132</v>
       </c>
       <c r="C82">
-        <v>0.1516708691563594</v>
+        <v>-0.02426943744101631</v>
       </c>
       <c r="D82">
-        <v>-0.009771930837728942</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003961792303449754</v>
+      </c>
+      <c r="E82">
+        <v>0.02873055276093279</v>
+      </c>
+      <c r="F82">
+        <v>-0.08039668339309622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02607761197012593</v>
+        <v>0.05989332067544396</v>
       </c>
       <c r="C83">
-        <v>0.06531529218513014</v>
+        <v>-0.002733913279546497</v>
       </c>
       <c r="D83">
-        <v>0.01902565353478806</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05137791846290299</v>
+      </c>
+      <c r="E83">
+        <v>0.005172700371980902</v>
+      </c>
+      <c r="F83">
+        <v>0.03107142908175211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03481617935763423</v>
+        <v>0.05885252401303248</v>
       </c>
       <c r="C84">
-        <v>0.06979889095518631</v>
+        <v>-0.01115974429403737</v>
       </c>
       <c r="D84">
-        <v>0.03333422914164734</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06334640199948739</v>
+      </c>
+      <c r="E84">
+        <v>0.006248146083467721</v>
+      </c>
+      <c r="F84">
+        <v>-0.004046895992245549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.05956237381620218</v>
+        <v>0.1367702266040759</v>
       </c>
       <c r="C85">
-        <v>0.1193564767097599</v>
+        <v>-0.02767873065138533</v>
       </c>
       <c r="D85">
-        <v>-0.01073191493609207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0102672699367171</v>
+      </c>
+      <c r="E85">
+        <v>0.03849079801458439</v>
+      </c>
+      <c r="F85">
+        <v>-0.0460853847611882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02280888790012728</v>
+        <v>0.09484509669150593</v>
       </c>
       <c r="C86">
-        <v>0.08579728205771094</v>
+        <v>0.00583481587405825</v>
       </c>
       <c r="D86">
-        <v>-0.1326083430459084</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03950525364982502</v>
+      </c>
+      <c r="E86">
+        <v>0.2113041897230018</v>
+      </c>
+      <c r="F86">
+        <v>0.9086637140156136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.06004749711392066</v>
+        <v>0.09693875841724223</v>
       </c>
       <c r="C87">
-        <v>0.1220352926048655</v>
+        <v>-0.01973607468240619</v>
       </c>
       <c r="D87">
-        <v>0.06814387802575202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0954263268493119</v>
+      </c>
+      <c r="E87">
+        <v>-0.05129410493169603</v>
+      </c>
+      <c r="F87">
+        <v>-0.05319832293817679</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02169896593237976</v>
+        <v>0.06105377725263868</v>
       </c>
       <c r="C88">
-        <v>0.05437973693270839</v>
+        <v>-0.002199642465941026</v>
       </c>
       <c r="D88">
-        <v>0.01241794308686968</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04953667537173299</v>
+      </c>
+      <c r="E88">
+        <v>0.024672188394669</v>
+      </c>
+      <c r="F88">
+        <v>-0.01214908681191781</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.02008168255369944</v>
+        <v>0.1333120649115356</v>
       </c>
       <c r="C89">
-        <v>0.07742407434473554</v>
+        <v>-0.01300959504045812</v>
       </c>
       <c r="D89">
-        <v>-0.2267516593015984</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.250134545259494</v>
+      </c>
+      <c r="E89">
+        <v>-0.09092230769186745</v>
+      </c>
+      <c r="F89">
+        <v>0.007961021468500515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.03548637293549948</v>
+        <v>0.1506138341510976</v>
       </c>
       <c r="C90">
-        <v>0.06272983088564399</v>
+        <v>-0.03208559220137502</v>
       </c>
       <c r="D90">
-        <v>-0.2052135487969345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700241084219052</v>
+      </c>
+      <c r="E90">
+        <v>-0.1125122190417762</v>
+      </c>
+      <c r="F90">
+        <v>0.001593578338606322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.04325501424976095</v>
+        <v>0.1206783834909739</v>
       </c>
       <c r="C91">
-        <v>0.1083343358944746</v>
+        <v>-0.01895634831152546</v>
       </c>
       <c r="D91">
-        <v>-0.03617667219813239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01327092224327656</v>
+      </c>
+      <c r="E91">
+        <v>0.05654967387719621</v>
+      </c>
+      <c r="F91">
+        <v>0.002275745891709679</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.02614143205891909</v>
+        <v>0.147541955184622</v>
       </c>
       <c r="C92">
-        <v>0.08716203375218812</v>
+        <v>-0.023636837916781</v>
       </c>
       <c r="D92">
-        <v>-0.2364568687469963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.292480601009964</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016417118231066</v>
+      </c>
+      <c r="F92">
+        <v>0.01213841891158611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0344119170602089</v>
+        <v>0.1521507788550651</v>
       </c>
       <c r="C93">
-        <v>0.07965653202553244</v>
+        <v>-0.02782082393262792</v>
       </c>
       <c r="D93">
-        <v>-0.2340111140948393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2691370101230822</v>
+      </c>
+      <c r="E93">
+        <v>-0.07780687776587336</v>
+      </c>
+      <c r="F93">
+        <v>-0.004078352277558411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.06115826272351892</v>
+        <v>0.130295403184698</v>
       </c>
       <c r="C94">
-        <v>0.1433207170519511</v>
+        <v>-0.02460944373147522</v>
       </c>
       <c r="D94">
-        <v>-0.0004941806903875495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04298670662793662</v>
+      </c>
+      <c r="E94">
+        <v>0.05800742666675379</v>
+      </c>
+      <c r="F94">
+        <v>-0.03581056514248115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.04328654843193801</v>
+        <v>0.1268794773121013</v>
       </c>
       <c r="C95">
-        <v>0.1216349435948336</v>
+        <v>-0.00355527515555157</v>
       </c>
       <c r="D95">
-        <v>0.05045936641468184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09203735673702083</v>
+      </c>
+      <c r="E95">
+        <v>0.04643787299123203</v>
+      </c>
+      <c r="F95">
+        <v>0.00761179783936834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9303181226507103</v>
+        <v>0.1063694209099653</v>
       </c>
       <c r="C96">
-        <v>0.3546840689643744</v>
+        <v>0.9875319302944273</v>
       </c>
       <c r="D96">
-        <v>-0.02443937344615839</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04748642022268055</v>
+      </c>
+      <c r="E96">
+        <v>0.05554073496076246</v>
+      </c>
+      <c r="F96">
+        <v>-0.04197935797351839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.03549348285953758</v>
+        <v>0.1927148177628734</v>
       </c>
       <c r="C97">
-        <v>0.1594380901120946</v>
+        <v>0.007236677921328882</v>
       </c>
       <c r="D97">
-        <v>-0.07687578241029444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01760522093273208</v>
+      </c>
+      <c r="E97">
+        <v>0.01814642183490469</v>
+      </c>
+      <c r="F97">
+        <v>0.09096492219684058</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.05390713690511592</v>
+        <v>0.2046380282591756</v>
       </c>
       <c r="C98">
-        <v>0.1844735430262892</v>
+        <v>-0.006981806108329977</v>
       </c>
       <c r="D98">
-        <v>0.001309571659068928</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01399375336365323</v>
+      </c>
+      <c r="E98">
+        <v>-0.08385795511446073</v>
+      </c>
+      <c r="F98">
+        <v>0.09381137520968272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.01194878481160865</v>
+        <v>0.05547407101927051</v>
       </c>
       <c r="C99">
-        <v>0.057253536560781</v>
+        <v>0.004702209421419065</v>
       </c>
       <c r="D99">
-        <v>0.003561109374177687</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03946964414845612</v>
+      </c>
+      <c r="E99">
+        <v>0.02281696698295534</v>
+      </c>
+      <c r="F99">
+        <v>-0.0008475155713881809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.01331634487663275</v>
+        <v>0.1258524859639075</v>
       </c>
       <c r="C100">
-        <v>0.1406165719542615</v>
+        <v>0.05433338731517091</v>
       </c>
       <c r="D100">
-        <v>0.7073504100877441</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3435480400014346</v>
+      </c>
+      <c r="E100">
+        <v>-0.8895180631067698</v>
+      </c>
+      <c r="F100">
+        <v>0.1403079434860509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01648691307607514</v>
+        <v>0.02739675381867164</v>
       </c>
       <c r="C101">
-        <v>0.01929344099230071</v>
+        <v>-0.008460368018504687</v>
       </c>
       <c r="D101">
-        <v>0.004439871777830891</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03140543770161106</v>
+      </c>
+      <c r="E101">
+        <v>0.01063945186737816</v>
+      </c>
+      <c r="F101">
+        <v>0.01347040106786586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
